--- a/day07/data/starbucks_seoul_list.xlsx
+++ b/day07/data/starbucks_seoul_list.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4109,7 +4109,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4493,7 +4493,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6413,7 +6413,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7757,7 +7757,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8077,7 +8077,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9389,7 +9389,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -9997,7 +9997,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10477,7 +10477,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11021,7 +11021,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11149,7 +11149,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11341,7 +11341,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11405,7 +11405,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11597,7 +11597,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11885,7 +11885,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12269,7 +12269,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12685,7 +12685,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12749,7 +12749,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12941,7 +12941,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13005,7 +13005,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13037,7 +13037,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13389,7 +13389,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13485,7 +13485,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13517,7 +13517,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13677,7 +13677,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13709,7 +13709,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13869,7 +13869,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13901,7 +13901,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13933,7 +13933,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13965,7 +13965,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14125,7 +14125,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14157,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14189,7 +14189,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14285,7 +14285,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14317,7 +14317,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14445,7 +14445,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14541,7 +14541,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14605,7 +14605,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14637,7 +14637,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14669,7 +14669,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14701,7 +14701,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14765,7 +14765,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -14989,7 +14989,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15021,7 +15021,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15149,7 +15149,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15181,7 +15181,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15309,7 +15309,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15341,7 +15341,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15373,7 +15373,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15405,7 +15405,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15437,7 +15437,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15501,7 +15501,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15565,7 +15565,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15597,7 +15597,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15629,7 +15629,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15693,7 +15693,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15725,7 +15725,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15757,7 +15757,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15789,7 +15789,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15853,7 +15853,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15885,7 +15885,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15949,7 +15949,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16045,7 +16045,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16077,7 +16077,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16109,7 +16109,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16141,7 +16141,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16173,7 +16173,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16205,7 +16205,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16237,7 +16237,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16269,7 +16269,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16429,7 +16429,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16461,7 +16461,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16525,7 +16525,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16557,7 +16557,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16589,7 +16589,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16653,7 +16653,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16685,7 +16685,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16717,7 +16717,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16781,7 +16781,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16813,7 +16813,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16845,7 +16845,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16877,7 +16877,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16941,7 +16941,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -16973,7 +16973,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17005,7 +17005,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17037,7 +17037,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17069,7 +17069,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17101,7 +17101,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17261,7 +17261,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17293,7 +17293,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17325,7 +17325,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17357,7 +17357,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17389,7 +17389,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17421,7 +17421,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17453,7 +17453,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17485,7 +17485,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17517,7 +17517,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17549,7 +17549,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17581,7 +17581,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17613,7 +17613,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17645,7 +17645,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17677,7 +17677,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17709,7 +17709,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17741,7 +17741,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17805,7 +17805,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17901,7 +17901,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17965,7 +17965,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18029,7 +18029,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18093,7 +18093,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18125,7 +18125,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18157,7 +18157,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18221,7 +18221,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18253,7 +18253,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18285,7 +18285,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18317,7 +18317,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18349,7 +18349,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18381,7 +18381,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18413,7 +18413,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18445,7 +18445,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18477,7 +18477,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18509,7 +18509,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18541,7 +18541,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18573,7 +18573,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18637,7 +18637,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18701,7 +18701,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18733,7 +18733,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18765,7 +18765,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18829,7 +18829,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18861,7 +18861,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18893,7 +18893,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18925,7 +18925,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18957,7 +18957,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -18989,7 +18989,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19021,7 +19021,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19085,7 +19085,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19149,7 +19149,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19181,7 +19181,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19213,7 +19213,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19245,7 +19245,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19277,7 +19277,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19309,7 +19309,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19341,7 +19341,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19373,7 +19373,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19405,7 +19405,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19437,7 +19437,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19469,7 +19469,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19501,7 +19501,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19533,7 +19533,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19565,7 +19565,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19597,7 +19597,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19629,7 +19629,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19661,7 +19661,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19693,7 +19693,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19725,7 +19725,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19757,7 +19757,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19789,7 +19789,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19821,7 +19821,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19885,7 +19885,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19917,7 +19917,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19949,7 +19949,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -20013,7 +20013,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>1522-3232&lt;/p</t>
+          <t>1522-3232</t>
         </is>
       </c>
     </row>
